--- a/sorted.xlsx
+++ b/sorted.xlsx
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <x:si>
-    <x:t>run-timeover</x:t>
-  </x:si>
-  <x:si>
-    <x:t>run-time over</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <x:si>
     <x:t>셸</x:t>
   </x:si>
@@ -521,7 +515,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/charts/chart0.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -679,7 +673,7 @@
                   <c:v>75.4234</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>200.4536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -945,7 +939,7 @@
                   <c:v>120.5748</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1000.345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1431,7 +1425,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/drawings/drawing0.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1782,7 +1776,7 @@
   <x:dimension ref="A1:G17"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="Q7" activeCellId="0" sqref="Q7:Q7"/>
+      <x:selection activeCell="D17" activeCellId="0" sqref="D17:D17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1795,22 +1789,22 @@
   <x:sheetData>
     <x:row r="1" spans="2:7">
       <x:c r="B1" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D1" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1" t="s">
         <x:v>2</x:v>
-      </x:c>
-      <x:c r="F1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G1" t="s">
-        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
@@ -2178,14 +2172,14 @@
         <x:f>2^20</x:f>
         <x:v>1048576</x:v>
       </x:c>
-      <x:c r="B17" t="s">
-        <x:v>0</x:v>
+      <x:c r="B17">
+        <x:v>200.45359999999999</x:v>
       </x:c>
       <x:c r="C17">
         <x:v>0.000184</x:v>
       </x:c>
-      <x:c r="D17" t="s">
-        <x:v>1</x:v>
+      <x:c r="D17">
+        <x:v>1000.345</x:v>
       </x:c>
       <x:c r="E17">
         <x:v>0.058394000000000001</x:v>
